--- a/dish_washwer_hardware/BOM/DISHWASHER BOM.xlsx
+++ b/dish_washwer_hardware/BOM/DISHWASHER BOM.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\kicad6\KICAD 6.0.0\K6_ ON COMP REPOSITORY\dish_washwer_hardware(1)\dish_washwer_hardware\BOM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\kicad6\KICAD 6.0.0\PROJECTS\steel_form_dish_washer\dish_washwer_hardware\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50EF1E8D-410B-4DC1-BB32-8848B0E21182}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A8F6442-09CF-4352-A9D4-4EFE83930920}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{AE161CED-3065-4FE4-A787-F2A4E7614358}"/>
+    <workbookView xWindow="0" yWindow="2688" windowWidth="17280" windowHeight="8964" xr2:uid="{AE161CED-3065-4FE4-A787-F2A4E7614358}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="175">
   <si>
     <t xml:space="preserve">    BZ1</t>
   </si>
@@ -307,21 +307,9 @@
     <t>10K</t>
   </si>
   <si>
-    <t>150R</t>
-  </si>
-  <si>
-    <t>0603WAJ0151T5E</t>
-  </si>
-  <si>
     <t>4.7K</t>
   </si>
   <si>
-    <t xml:space="preserve">    R43</t>
-  </si>
-  <si>
-    <t>75K</t>
-  </si>
-  <si>
     <t>1M</t>
   </si>
   <si>
@@ -382,30 +370,6 @@
     <t>digikey-footprints:DIP-6_W7.62mm</t>
   </si>
   <si>
-    <t xml:space="preserve">    U12</t>
-  </si>
-  <si>
-    <t>TXS0108EPW</t>
-  </si>
-  <si>
-    <t>Package_SO:TSSOP-20_4.4x6.5mm_P0.65mm</t>
-  </si>
-  <si>
-    <t>EAST1616RGBA8</t>
-  </si>
-  <si>
-    <t>greencharge-footprints:EAST1616RGBA8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    U15</t>
-  </si>
-  <si>
-    <t>MPR121QR2</t>
-  </si>
-  <si>
-    <t>Package_DFN_QFN:UQFN-20_3x3mm_P0.4mm</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Y1</t>
   </si>
   <si>
@@ -436,15 +400,9 @@
     <t xml:space="preserve">  C14, C15</t>
   </si>
   <si>
-    <t xml:space="preserve"> C1, C2, C5-C12, C16, C18-C24</t>
-  </si>
-  <si>
     <t xml:space="preserve"> D4-D6, D9</t>
   </si>
   <si>
-    <t xml:space="preserve"> J5, J18</t>
-  </si>
-  <si>
     <t xml:space="preserve"> K1-K6</t>
   </si>
   <si>
@@ -466,9 +424,6 @@
     <t xml:space="preserve"> R11, R12</t>
   </si>
   <si>
-    <t xml:space="preserve"> U13, U14</t>
-  </si>
-  <si>
     <t xml:space="preserve"> U6-U8, U11</t>
   </si>
   <si>
@@ -481,21 +436,12 @@
     <t xml:space="preserve"> R45-R47</t>
   </si>
   <si>
-    <t xml:space="preserve"> R41, R42, R44</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> R36, R39</t>
-  </si>
-  <si>
     <t xml:space="preserve"> R5, R18-R20, R24-R26, R28, R29, R34, R50, R51</t>
   </si>
   <si>
     <t>R14-R17, R27, R30, R32, R33, R48, R49</t>
   </si>
   <si>
-    <t xml:space="preserve"> R13, R35, R37, R38, R40</t>
-  </si>
-  <si>
     <t>CC0402MRX5R5BB106</t>
   </si>
   <si>
@@ -595,12 +541,6 @@
     <t>AC0402FR-0710KL</t>
   </si>
   <si>
-    <t>RC0603JR-074K7L</t>
-  </si>
-  <si>
-    <t>0603WAF7502T5E</t>
-  </si>
-  <si>
     <t>AC0402FR-071ML</t>
   </si>
   <si>
@@ -608,6 +548,15 @@
   </si>
   <si>
     <t>Digipart</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> C1, C2, C5-C12, C16, C18-C22</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> J5</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> R13</t>
   </si>
 </sst>
 </file>
@@ -1477,10 +1426,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04D556C4-33BD-4335-8093-03DF16A51F8F}">
-  <dimension ref="A1:F58"/>
+  <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="A56" sqref="A56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1493,22 +1442,22 @@
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -1525,7 +1474,7 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -1542,10 +1491,10 @@
         <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="E3" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -1562,10 +1511,10 @@
         <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>155</v>
+        <v>137</v>
       </c>
       <c r="E4" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -1582,10 +1531,10 @@
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="E5" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -1593,7 +1542,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
@@ -1602,10 +1551,10 @@
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="E6" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
       <c r="F6">
         <v>2</v>
@@ -1622,10 +1571,10 @@
         <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>158</v>
+        <v>140</v>
       </c>
       <c r="E7" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -1633,7 +1582,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>134</v>
+        <v>172</v>
       </c>
       <c r="B8" t="s">
         <v>14</v>
@@ -1642,18 +1591,18 @@
         <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
       <c r="E8" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
       <c r="F8">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>161</v>
+        <v>143</v>
       </c>
       <c r="B9" t="s">
         <v>15</v>
@@ -1662,10 +1611,10 @@
         <v>16</v>
       </c>
       <c r="D9" t="s">
-        <v>162</v>
+        <v>144</v>
       </c>
       <c r="E9" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -1673,7 +1622,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>160</v>
+        <v>142</v>
       </c>
       <c r="B10" t="s">
         <v>15</v>
@@ -1682,10 +1631,10 @@
         <v>16</v>
       </c>
       <c r="D10" t="s">
-        <v>163</v>
+        <v>145</v>
       </c>
       <c r="E10" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -1705,7 +1654,7 @@
         <v>18</v>
       </c>
       <c r="E11" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -1713,7 +1662,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="B12" t="s">
         <v>20</v>
@@ -1725,7 +1674,7 @@
         <v>22</v>
       </c>
       <c r="E12" t="s">
-        <v>165</v>
+        <v>147</v>
       </c>
       <c r="F12">
         <v>4</v>
@@ -1742,10 +1691,10 @@
         <v>25</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>166</v>
+        <v>148</v>
       </c>
       <c r="E13" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
       <c r="F13">
         <v>1</v>
@@ -1762,10 +1711,10 @@
         <v>25</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>166</v>
+        <v>148</v>
       </c>
       <c r="E14" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
       <c r="F14">
         <v>1</v>
@@ -1785,7 +1734,7 @@
         <v>387207505</v>
       </c>
       <c r="E15" t="s">
-        <v>168</v>
+        <v>150</v>
       </c>
       <c r="F15">
         <v>1</v>
@@ -1802,10 +1751,10 @@
         <v>33</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>167</v>
+        <v>149</v>
       </c>
       <c r="E16" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
       <c r="F16">
         <v>1</v>
@@ -1813,7 +1762,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>136</v>
+        <v>173</v>
       </c>
       <c r="B17" t="s">
         <v>34</v>
@@ -1822,13 +1771,13 @@
         <v>35</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>169</v>
+        <v>151</v>
       </c>
       <c r="E17" s="19" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
       <c r="F17">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -1842,10 +1791,10 @@
         <v>38</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>170</v>
+        <v>152</v>
       </c>
       <c r="E18" s="19" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
       <c r="F18">
         <v>1</v>
@@ -1862,10 +1811,10 @@
         <v>41</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="E19" s="19" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
       <c r="F19">
         <v>1</v>
@@ -1882,10 +1831,10 @@
         <v>44</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>174</v>
+        <v>156</v>
       </c>
       <c r="E20" s="19" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
       <c r="F20">
         <v>1</v>
@@ -1902,10 +1851,10 @@
         <v>47</v>
       </c>
       <c r="D21" s="16" t="s">
-        <v>174</v>
+        <v>156</v>
       </c>
       <c r="E21" s="19" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
       <c r="F21">
         <v>1</v>
@@ -1925,7 +1874,7 @@
         <v>52</v>
       </c>
       <c r="E22" s="19" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
       <c r="F22">
         <v>1</v>
@@ -1945,7 +1894,7 @@
         <v>52</v>
       </c>
       <c r="E23" s="19" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
       <c r="F23">
         <v>1</v>
@@ -1962,10 +1911,10 @@
         <v>55</v>
       </c>
       <c r="D24" s="19" t="s">
-        <v>172</v>
+        <v>154</v>
       </c>
       <c r="E24" s="19" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
       <c r="F24">
         <v>1</v>
@@ -1982,10 +1931,10 @@
         <v>25</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>175</v>
+        <v>157</v>
       </c>
       <c r="E25" s="19" t="s">
-        <v>165</v>
+        <v>147</v>
       </c>
       <c r="F25">
         <v>1</v>
@@ -2002,10 +1951,10 @@
         <v>25</v>
       </c>
       <c r="D26" s="13" t="s">
-        <v>175</v>
+        <v>157</v>
       </c>
       <c r="E26" s="19" t="s">
-        <v>165</v>
+        <v>147</v>
       </c>
       <c r="F26">
         <v>1</v>
@@ -2025,7 +1974,7 @@
         <v>52</v>
       </c>
       <c r="E27" s="19" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
       <c r="F27">
         <v>1</v>
@@ -2045,7 +1994,7 @@
         <v>52</v>
       </c>
       <c r="E28" s="19" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
       <c r="F28">
         <v>1</v>
@@ -2062,10 +2011,10 @@
         <v>66</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
       <c r="E29" s="19" t="s">
-        <v>168</v>
+        <v>150</v>
       </c>
       <c r="F29">
         <v>1</v>
@@ -2082,10 +2031,10 @@
         <v>69</v>
       </c>
       <c r="D30" t="s">
-        <v>176</v>
+        <v>158</v>
       </c>
       <c r="E30" s="19" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
       <c r="F30">
         <v>1</v>
@@ -2093,7 +2042,7 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="B31" t="s">
         <v>70</v>
@@ -2105,7 +2054,7 @@
         <v>70</v>
       </c>
       <c r="E31" s="19" t="s">
-        <v>165</v>
+        <v>147</v>
       </c>
       <c r="F31">
         <v>6</v>
@@ -2125,7 +2074,7 @@
         <v>73</v>
       </c>
       <c r="E32" s="21" t="s">
-        <v>177</v>
+        <v>159</v>
       </c>
       <c r="F32">
         <v>1</v>
@@ -2142,10 +2091,10 @@
         <v>77</v>
       </c>
       <c r="D33" t="s">
-        <v>178</v>
+        <v>160</v>
       </c>
       <c r="E33" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
       <c r="F33">
         <v>1</v>
@@ -2153,7 +2102,7 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="B34" t="s">
         <v>78</v>
@@ -2165,7 +2114,7 @@
         <v>78</v>
       </c>
       <c r="E34" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
       <c r="F34">
         <v>5</v>
@@ -2173,7 +2122,7 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="B35" t="s">
         <v>80</v>
@@ -2182,10 +2131,10 @@
         <v>81</v>
       </c>
       <c r="D35" s="22" t="s">
-        <v>179</v>
+        <v>161</v>
       </c>
       <c r="E35" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
       <c r="F35">
         <v>2</v>
@@ -2193,7 +2142,7 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="B36" t="s">
         <v>82</v>
@@ -2202,10 +2151,10 @@
         <v>81</v>
       </c>
       <c r="D36" t="s">
-        <v>180</v>
+        <v>162</v>
       </c>
       <c r="E36" s="22" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
       <c r="F36">
         <v>5</v>
@@ -2213,7 +2162,7 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="B37" t="s">
         <v>83</v>
@@ -2222,10 +2171,10 @@
         <v>81</v>
       </c>
       <c r="D37" t="s">
-        <v>181</v>
+        <v>163</v>
       </c>
       <c r="E37" s="22" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
       <c r="F37">
         <v>2</v>
@@ -2233,7 +2182,7 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="B38" t="s">
         <v>84</v>
@@ -2242,10 +2191,10 @@
         <v>81</v>
       </c>
       <c r="D38" t="s">
-        <v>182</v>
+        <v>164</v>
       </c>
       <c r="E38" s="22" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
       <c r="F38">
         <v>4</v>
@@ -2253,7 +2202,7 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="B39" t="s">
         <v>85</v>
@@ -2262,10 +2211,10 @@
         <v>86</v>
       </c>
       <c r="D39" t="s">
-        <v>183</v>
+        <v>165</v>
       </c>
       <c r="E39" s="22" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
       <c r="F39">
         <v>2</v>
@@ -2273,7 +2222,7 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>153</v>
+        <v>174</v>
       </c>
       <c r="B40" t="s">
         <v>87</v>
@@ -2282,18 +2231,18 @@
         <v>88</v>
       </c>
       <c r="D40" t="s">
-        <v>184</v>
+        <v>166</v>
       </c>
       <c r="E40" s="22" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
       <c r="F40">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
       <c r="B41" t="s">
         <v>89</v>
@@ -2302,10 +2251,10 @@
         <v>81</v>
       </c>
       <c r="D41" t="s">
-        <v>185</v>
+        <v>167</v>
       </c>
       <c r="E41" s="22" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
       <c r="F41">
         <v>10</v>
@@ -2313,7 +2262,7 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="B42" t="s">
         <v>90</v>
@@ -2322,10 +2271,10 @@
         <v>81</v>
       </c>
       <c r="D42" t="s">
-        <v>186</v>
+        <v>168</v>
       </c>
       <c r="E42" s="22" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
       <c r="F42">
         <v>12</v>
@@ -2333,139 +2282,139 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="B43" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C43" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="D43" t="s">
-        <v>92</v>
+        <v>169</v>
       </c>
       <c r="E43" s="22" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
       <c r="F43">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>149</v>
+        <v>93</v>
       </c>
       <c r="B44" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C44" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="D44" t="s">
-        <v>187</v>
+        <v>164</v>
       </c>
       <c r="E44" s="22" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
       <c r="F44">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
+        <v>132</v>
+      </c>
+      <c r="B45" t="s">
         <v>94</v>
       </c>
-      <c r="B45" t="s">
+      <c r="C45" t="s">
         <v>95</v>
       </c>
-      <c r="C45" t="s">
-        <v>88</v>
-      </c>
-      <c r="D45" t="s">
-        <v>188</v>
-      </c>
-      <c r="E45" s="22" t="s">
-        <v>164</v>
+      <c r="D45" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="E45" t="s">
+        <v>146</v>
       </c>
       <c r="F45">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>148</v>
+        <v>96</v>
       </c>
       <c r="B46" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C46" t="s">
-        <v>81</v>
-      </c>
-      <c r="D46" t="s">
-        <v>189</v>
-      </c>
-      <c r="E46" s="22" t="s">
-        <v>164</v>
+        <v>98</v>
+      </c>
+      <c r="D46" s="23" t="s">
+        <v>170</v>
+      </c>
+      <c r="E46" s="23" t="s">
+        <v>146</v>
       </c>
       <c r="F46">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>97</v>
+        <v>131</v>
       </c>
       <c r="B47" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="C47" t="s">
-        <v>81</v>
-      </c>
-      <c r="D47" t="s">
-        <v>182</v>
-      </c>
-      <c r="E47" s="22" t="s">
-        <v>164</v>
+        <v>100</v>
+      </c>
+      <c r="D47" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="E47" s="23" t="s">
+        <v>171</v>
       </c>
       <c r="F47">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>147</v>
+        <v>101</v>
       </c>
       <c r="B48" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C48" t="s">
-        <v>99</v>
-      </c>
-      <c r="D48" s="22" t="s">
-        <v>98</v>
-      </c>
-      <c r="E48" t="s">
-        <v>164</v>
+        <v>103</v>
+      </c>
+      <c r="D48" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="E48" s="23" t="s">
+        <v>146</v>
       </c>
       <c r="F48">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B49" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="C49" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D49" s="23" t="s">
-        <v>190</v>
+        <v>105</v>
       </c>
       <c r="E49" s="23" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="F49">
         <v>1</v>
@@ -2473,181 +2422,61 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>146</v>
+        <v>107</v>
       </c>
       <c r="B50" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="C50" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="D50" s="23" t="s">
-        <v>103</v>
-      </c>
-      <c r="E50" s="23" t="s">
-        <v>191</v>
+        <v>108</v>
+      </c>
+      <c r="E50" t="s">
+        <v>146</v>
       </c>
       <c r="F50">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>105</v>
+        <v>130</v>
       </c>
       <c r="B51" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C51" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="D51" s="23" t="s">
-        <v>106</v>
-      </c>
-      <c r="E51" s="23" t="s">
-        <v>164</v>
+        <v>110</v>
+      </c>
+      <c r="E51" t="s">
+        <v>146</v>
       </c>
       <c r="F51">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B52" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="C52" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="D52" s="23" t="s">
-        <v>109</v>
-      </c>
-      <c r="E52" s="23" t="s">
-        <v>191</v>
+        <v>113</v>
+      </c>
+      <c r="E52" t="s">
+        <v>147</v>
       </c>
       <c r="F52">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>111</v>
-      </c>
-      <c r="B53" t="s">
-        <v>112</v>
-      </c>
-      <c r="C53" t="s">
-        <v>113</v>
-      </c>
-      <c r="D53" s="23" t="s">
-        <v>112</v>
-      </c>
-      <c r="E53" t="s">
-        <v>164</v>
-      </c>
-      <c r="F53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
-        <v>145</v>
-      </c>
-      <c r="B54" t="s">
-        <v>114</v>
-      </c>
-      <c r="C54" t="s">
-        <v>115</v>
-      </c>
-      <c r="D54" s="23" t="s">
-        <v>114</v>
-      </c>
-      <c r="E54" t="s">
-        <v>164</v>
-      </c>
-      <c r="F54">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
-        <v>116</v>
-      </c>
-      <c r="B55" t="s">
-        <v>117</v>
-      </c>
-      <c r="C55" t="s">
-        <v>118</v>
-      </c>
-      <c r="D55" s="23" t="s">
-        <v>117</v>
-      </c>
-      <c r="E55" t="s">
-        <v>164</v>
-      </c>
-      <c r="F55">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
-        <v>144</v>
-      </c>
-      <c r="B56" t="s">
-        <v>119</v>
-      </c>
-      <c r="C56" t="s">
-        <v>120</v>
-      </c>
-      <c r="D56" s="23" t="s">
-        <v>119</v>
-      </c>
-      <c r="E56" t="s">
-        <v>165</v>
-      </c>
-      <c r="F56">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
-        <v>121</v>
-      </c>
-      <c r="B57" t="s">
-        <v>122</v>
-      </c>
-      <c r="C57" t="s">
-        <v>123</v>
-      </c>
-      <c r="D57" s="23" t="s">
-        <v>122</v>
-      </c>
-      <c r="E57" t="s">
-        <v>191</v>
-      </c>
-      <c r="F57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
-        <v>124</v>
-      </c>
-      <c r="B58" t="s">
-        <v>125</v>
-      </c>
-      <c r="C58" t="s">
-        <v>126</v>
-      </c>
-      <c r="D58" s="23" t="s">
-        <v>125</v>
-      </c>
-      <c r="E58" t="s">
-        <v>165</v>
-      </c>
-      <c r="F58">
         <v>1</v>
       </c>
     </row>
